--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2824948.166986062</v>
+        <v>2900477.836650866</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9047458.492055899</v>
+        <v>9047458.492055897</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>87.43028613814758</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>310.5845684360664</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>159.9332429020091</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>39.58626266897635</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>318.7434439375937</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>118.9026972905754</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>325.7066003172856</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>192.8656396232001</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1189,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>10.46499054460243</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>205.3644314241346</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>157.9368985456419</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>168.7457110392516</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>21.67585276665801</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.64099753928131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>89.29880980927874</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>188.2706765848719</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>55.51369213499295</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>165.7299368928108</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>123.6166104457089</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>139.4319924052467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>33.15891095871732</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>31.5707067867066</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>52.94876677773191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.2693293806808</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.2489570623196</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>45.44745406739244</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>173.3937386097687</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>112.0409510549859</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>207.5780900046795</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.05100180681481</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>219.9420810345229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>76.57971109536189</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>141.8447877584753</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>688.4561315142857</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C2" t="n">
-        <v>688.4561315142857</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="D2" t="n">
-        <v>688.4561315142857</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="E2" t="n">
-        <v>302.6678789160415</v>
+        <v>541.9996489349444</v>
       </c>
       <c r="F2" t="n">
-        <v>295.722378166838</v>
+        <v>535.0541481857409</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>521.1307441243318</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.055971578407</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.1482364572798</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>261.1482364572798</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>261.1482364572798</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="Y4" t="n">
-        <v>261.1482364572798</v>
+        <v>688.1428602983775</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2345.839179225941</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2092.077393864032</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1761.014506520462</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1408.245851250347</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.245851250347</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.106519274536</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4750,16 +4752,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1288.509552617345</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942546</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942546</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942546</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681466</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1675.109392681466</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>717.5582866866337</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>717.5582866866337</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2500993552354</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V10" t="n">
-        <v>490.2500993552354</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5121,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>904.7606320919992</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>650.0761438861124</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>650.0761438861124</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>650.0761438861124</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y13" t="n">
-        <v>429.2835647425823</v>
+        <v>537.2200865194189</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,16 +5357,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203583</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003199</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N15" t="n">
         <v>1736.599915964471</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3515998808206</v>
+        <v>416.118479144934</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808206</v>
+        <v>416.118479144934</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>266.0018397325982</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>266.0018397325982</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>119.1118922346879</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>119.1118922346879</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>119.1118922346879</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.3515998808206</v>
+        <v>416.118479144934</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5512,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5549,7 +5551,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>2787.503716928088</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>3094.823850208049</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N18" t="n">
-        <v>3899.2354284722</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.8045051785809</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
         <v>208.7516828383384</v>
@@ -5668,19 +5670,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1408.715452568732</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.930037358238</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1184.930037358238</v>
+        <v>1108.823859882675</v>
       </c>
       <c r="V19" t="n">
-        <v>930.2455491523508</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="W19" t="n">
-        <v>930.2455491523508</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="X19" t="n">
-        <v>930.2455491523508</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4529700088207</v>
+        <v>854.1393716767884</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5756,7 +5758,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5832,19 +5834,19 @@
         <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>3033.644633014776</v>
       </c>
       <c r="M21" t="n">
-        <v>3540.192194764783</v>
+        <v>3644.018355938592</v>
       </c>
       <c r="N21" t="n">
-        <v>3870.054822428816</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O21" t="n">
-        <v>4539.518583731476</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P21" t="n">
         <v>4773.721670557069</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>303.4081673726145</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>303.4081673726145</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>153.2915279602787</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>153.2915279602787</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>153.2915279602787</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>907.806868603556</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726145</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y22" t="n">
-        <v>303.4081673726145</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5965,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231263</v>
@@ -6026,13 +6028,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079764</v>
+        <v>2771.824048372321</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>3540.192194764782</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>3870.054822428815</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>4149.594887647512</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4036.934124172601</v>
+        <v>4075.516172206884</v>
       </c>
       <c r="C25" t="n">
-        <v>3867.997941244694</v>
+        <v>3906.579989278977</v>
       </c>
       <c r="D25" t="n">
-        <v>3867.997941244694</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="E25" t="n">
-        <v>3867.997941244694</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
         <v>3459.155393916675</v>
@@ -6157,40 +6159,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T25" t="n">
-        <v>4735.989309937819</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U25" t="n">
-        <v>4735.989309937819</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V25" t="n">
-        <v>4735.989309937819</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="W25" t="n">
-        <v>4446.572139900858</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="X25" t="n">
-        <v>4218.582589002841</v>
+        <v>4296.308751350414</v>
       </c>
       <c r="Y25" t="n">
-        <v>4218.582589002841</v>
+        <v>4075.516172206884</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6223,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6236,34 +6238,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>154.3878371814099</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3907.801489902814</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4827.360723561043</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4827.360723561043</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>4538.2320847746</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>4538.2320847746</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>4538.2320847746</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>4310.242533876583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>4089.449954733053</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6457,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>380.9740019042123</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>627.7391298106763</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1396.107276203138</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.2823606383756</v>
+        <v>3919.428864619884</v>
       </c>
       <c r="C31" t="n">
-        <v>412.2823606383756</v>
+        <v>3750.492681691977</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>3750.492681691977</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>3602.579588109584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>3602.579588109584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T31" t="n">
-        <v>1245.512657667665</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U31" t="n">
-        <v>956.3840188812231</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="V31" t="n">
-        <v>701.6995306753363</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="W31" t="n">
-        <v>412.2823606383756</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="X31" t="n">
-        <v>412.2823606383756</v>
+        <v>4321.869908593654</v>
       </c>
       <c r="Y31" t="n">
-        <v>412.2823606383756</v>
+        <v>4101.077329450124</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>3400.7765748652</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M33" t="n">
-        <v>3708.096708145162</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N33" t="n">
-        <v>4037.959335809195</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>4350.092662819068</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.1935825831087</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="C34" t="n">
-        <v>527.1935825831087</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D34" t="n">
-        <v>527.1935825831087</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E34" t="n">
-        <v>527.1935825831087</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F34" t="n">
-        <v>527.1935825831087</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G34" t="n">
-        <v>359.0182609029292</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>208.6002524508725</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4693.936434567506</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>4404.807795781064</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>4150.123307575177</v>
       </c>
       <c r="W34" t="n">
-        <v>755.183133481126</v>
+        <v>4150.123307575177</v>
       </c>
       <c r="X34" t="n">
-        <v>527.1935825831087</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.1935825831087</v>
+        <v>3922.133756677159</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,43 +6928,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4061.516185047361</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C37" t="n">
-        <v>4061.516185047361</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D37" t="n">
-        <v>3911.399545635025</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E37" t="n">
-        <v>3763.486452052632</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>3616.596504554721</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>4574.6342790612</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227851</v>
+        <v>4574.6342790612</v>
       </c>
       <c r="V37" t="n">
-        <v>4571.725934227851</v>
+        <v>4319.949790855313</v>
       </c>
       <c r="W37" t="n">
-        <v>4282.308764190891</v>
+        <v>4030.532620818352</v>
       </c>
       <c r="X37" t="n">
-        <v>4282.308764190891</v>
+        <v>4030.532620818352</v>
       </c>
       <c r="Y37" t="n">
-        <v>4061.516185047361</v>
+        <v>3809.740041674822</v>
       </c>
     </row>
     <row r="38">
@@ -7157,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263799</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465859</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L39" t="n">
         <v>3138.955990222747</v>
       </c>
       <c r="M39" t="n">
-        <v>3446.276123502709</v>
+        <v>3907.324136615208</v>
       </c>
       <c r="N39" t="n">
-        <v>4250.68770176686</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O39" t="n">
-        <v>4530.227766985558</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.72167055707</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>619.9540936663864</v>
+        <v>3759.690041781068</v>
       </c>
       <c r="C40" t="n">
-        <v>506.7814158330673</v>
+        <v>3759.690041781068</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033469</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W40" t="n">
-        <v>619.9540936663864</v>
+        <v>4162.131085754838</v>
       </c>
       <c r="X40" t="n">
-        <v>619.9540936663864</v>
+        <v>4162.131085754838</v>
       </c>
       <c r="Y40" t="n">
-        <v>619.9540936663864</v>
+        <v>3941.338506611308</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805456</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822449</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028434</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823773</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.438140992646</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C43" t="n">
-        <v>542.438140992646</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1076.832542256765</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273993</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W43" t="n">
-        <v>554.6108700904388</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X43" t="n">
-        <v>554.6108700904388</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y43" t="n">
-        <v>554.6108700904388</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7633,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7691,7 +7693,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,13 +7736,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2227.840212610279</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.4452354807079</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C46" t="n">
-        <v>415.509052552801</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1110.567913504611</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>1110.567913504611</v>
       </c>
       <c r="V46" t="n">
-        <v>909.3712637033469</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="W46" t="n">
-        <v>766.0937003109476</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="X46" t="n">
-        <v>766.0937003109476</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="Y46" t="n">
-        <v>766.0937003109476</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360596</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>91.23759968302113</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>15.83804904622775</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>15.83804904622787</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627436</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>306.1147370139945</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978171</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>213.2603911806621</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>15.8380490462287</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>223.6742649934478</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,13 +10120,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10191,16 +10193,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>94.13752431970605</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>32.92248665775395</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.83804904622852</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10908,22 +10910,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>52.49733361305215</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>38.86002301949793</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.23759968302045</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>104.6241510367947</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>21.8950816362954</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>117.4916413593258</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.74339269761398</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.9436558128135</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>108.6220001743245</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>97.96667581370545</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>110.9798763283846</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>86.4077064310172</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>97.93095061268035</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>86.27766298379041</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>164.7618990248859</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.922861676671</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>168.5987942806573</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1499160835911795</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>56.29860399606969</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>121.0461143959851</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>48.15382244862056</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>55.20587004364195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>78.94490833191151</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>167.7809783751225</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>66.2952713640544</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>144.9678499630274</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>144.6782105781157</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914263</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803346</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230237</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26481,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083536</v>
+        <v>-190484.3187083538</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.5605061909</v>
+        <v>399483.5605061906</v>
       </c>
       <c r="D6" t="n">
-        <v>399483.5605061909</v>
+        <v>399483.560506191</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758099</v>
+        <v>-20804.41239758076</v>
       </c>
       <c r="F6" t="n">
-        <v>504355.6240793152</v>
+        <v>504355.6240793155</v>
       </c>
       <c r="G6" t="n">
-        <v>504355.6240793153</v>
+        <v>504355.6240793147</v>
       </c>
       <c r="H6" t="n">
         <v>504355.6240793155</v>
@@ -26543,25 +26545,25 @@
         <v>504355.6240793156</v>
       </c>
       <c r="J6" t="n">
-        <v>327932.4048867223</v>
+        <v>327932.4048867222</v>
       </c>
       <c r="K6" t="n">
-        <v>504355.6240793155</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="L6" t="n">
-        <v>504355.6240793153</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="M6" t="n">
-        <v>369554.6088454783</v>
+        <v>369554.6088454782</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.6240793157</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="O6" t="n">
+        <v>504355.6240793151</v>
+      </c>
+      <c r="P6" t="n">
         <v>504355.6240793152</v>
-      </c>
-      <c r="P6" t="n">
-        <v>504355.6240793149</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>326.3538838826474</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>13.33820432829071</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.313578196618693</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1233927200608</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>88.13260180411777</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>97.54562306708239</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>117.5062691663786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,20 +27855,20 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>39.56629145372193</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>214.0104061185113</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>136.2002014355554</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>80.91744281784312</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29098,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839198</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.1985191750489</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>340.4953046390455</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0957540022521</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966943</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>616.5391140644609</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713064</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>420.3538061121867</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>57.74822800113536</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>556.8688383914607</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>244.7129629076453</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>532.9342021211286</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>315.2861888988621</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>222.9314639777532</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37630,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>385.691907011065</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>245.9534379510226</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>179.2506324680946</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>513.2182750716003</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>311.7175659683194</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900477.836650866</v>
+        <v>2893460.821759154</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>310.5845684360664</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.6056447625528</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>39.58626266897635</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>318.7434439375937</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>148.3681250208878</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>129.0246247964033</v>
+        <v>100.5554366672283</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>192.8656396232001</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>99.72476023394486</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>72.43998417784667</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>205.3644314241346</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.9368985456419</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>62.09617589318577</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.88884117514947</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>21.67585276665801</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>188.2706765848719</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>93.87916681139954</v>
       </c>
       <c r="V22" t="n">
-        <v>165.7299368928108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>197.6535646950098</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.4319924052467</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>102.2541037431231</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>31.5707067867066</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>165.2489570623196</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>147.8740287942481</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>173.3937386097687</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W40" t="n">
-        <v>207.5780900046795</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9420810345229</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>76.57971109536189</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>161.7301927680888</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.7879015331887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>927.7879015331887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>927.7879015331887</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>541.9996489349444</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>535.0541481857409</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>521.1307441243318</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.4943954681378</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>681.052575355371</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>681.052575355371</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>681.052575355371</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>391.878965009939</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X4" t="n">
-        <v>688.1428602983775</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.1428602983775</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2001.758776122685</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C5" t="n">
-        <v>1632.796259182274</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.530560575523</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1274.530560575523</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2316.076120912494</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.358616186807</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>597.1409169113407</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.569074795015</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>1101.606557854603</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>743.3408592478529</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E8" t="n">
-        <v>743.3408592478529</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>491.2732454397182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>491.2732454397182</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5044,22 +5044,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.6878657662453</v>
+        <v>328.8766843813097</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>159.9405014534028</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>159.9405014534028</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5235,16 +5235,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>758.0126656629491</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y13" t="n">
-        <v>537.2200865194189</v>
+        <v>510.5251492115494</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203586</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003201</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.118479144934</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>416.118479144934</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>266.0018397325982</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>266.0018397325982</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>119.1118922346879</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>119.1118922346879</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>119.1118922346879</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>644.1080300429513</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>416.118479144934</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.118479144934</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,10 +5530,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698951</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1108.823859882675</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>854.1393716767884</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>854.1393716767884</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>854.1393716767884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.1393716767884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014776</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>3644.018355938592</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>3973.880983602625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,10 +5913,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>907.806868603556</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>618.3896985665954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6028,13 +6028,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465857</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3540.192194764782</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3870.054822428815</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4149.594887647512</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4075.516172206884</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>3906.579989278977</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>3756.463349866642</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929844</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4437.14914771935</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="V25" t="n">
-        <v>4437.14914771935</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="W25" t="n">
-        <v>4437.14914771935</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X25" t="n">
-        <v>4296.308751350414</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y25" t="n">
-        <v>4075.516172206884</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6229,16 +6229,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>154.3878371814099</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>303.4575213834697</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1395.629297080001</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1106.500658293559</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>851.8161700876719</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3919.428864619884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3750.492681691977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3750.492681691977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3602.579588109584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3602.579588109584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.859459491671</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4549.859459491671</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4549.859459491671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4321.869908593654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4101.077329450124</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4693.936434567506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.807795781064</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4150.123307575177</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4150.123307575177</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3628.091576844583</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4574.6342790612</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4574.6342790612</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4319.949790855313</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>4030.532620818352</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>4030.532620818352</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>3809.740041674822</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>3138.955990222747</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>3907.324136615208</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556162</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3759.690041781068</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>3759.690041781068</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4371.805924143403</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4371.805924143403</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W40" t="n">
-        <v>4162.131085754838</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X40" t="n">
-        <v>4162.131085754838</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y40" t="n">
-        <v>3941.338506611308</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805456</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822449</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028434</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823773</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141292</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>1925.814757496977</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2446.115379232725</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1076.832542256765</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>822.1480540508779</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>822.1480540508779</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7739,13 +7739,13 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.2349604684848</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1110.567913504611</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1110.567913504611</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>855.8834252987245</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>855.8834252987245</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>855.8834252987245</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>855.8834252987245</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>15.83804904622787</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627436</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>306.1147370139945</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>213.2603911806621</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>15.8380490462287</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>15.83804904622872</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>87.16935584025424</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,25 +10904,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>52.49733361305215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.23759968302045</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.8950816362954</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>84.3377867533834</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.3579799234784</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.74339269761398</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>97.96667581370545</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871778</v>
       </c>
       <c r="V22" t="n">
-        <v>86.4077064310172</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>88.58378770356754</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>86.27766298379041</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>119.2934573152661</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>134.922861676671</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>56.29860399606969</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>31.95795138768923</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>48.15382244862056</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W40" t="n">
-        <v>78.94490833191151</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>66.2952713640544</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>144.9678499630274</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>56.85446058400595</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
         <v>625646.4955803341</v>
@@ -26355,7 +26355,7 @@
         <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26484,22 +26484,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083538</v>
+        <v>-190484.3187083534</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.5605061906</v>
+        <v>399483.560506191</v>
       </c>
       <c r="D6" t="n">
-        <v>399483.560506191</v>
+        <v>399483.5605061909</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758076</v>
+        <v>-21779.00365730263</v>
       </c>
       <c r="F6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="G6" t="n">
-        <v>504355.6240793147</v>
+        <v>503381.0328195933</v>
       </c>
       <c r="H6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195937</v>
       </c>
       <c r="I6" t="n">
-        <v>504355.6240793156</v>
+        <v>503381.0328195937</v>
       </c>
       <c r="J6" t="n">
-        <v>327932.4048867222</v>
+        <v>326957.8136270004</v>
       </c>
       <c r="K6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195937</v>
       </c>
       <c r="L6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195938</v>
       </c>
       <c r="M6" t="n">
-        <v>369554.6088454782</v>
+        <v>368580.0175857563</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="O6" t="n">
-        <v>504355.6240793151</v>
+        <v>503381.0328195934</v>
       </c>
       <c r="P6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195933</v>
       </c>
     </row>
   </sheetData>
@@ -26752,19 +26752,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541005</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.33820432829071</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>100.059547217605</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>186.1233927200608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>88.13260180411777</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>68.08019533676998</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>83.12091415361559</v>
+        <v>111.5901022827906</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>214.0104061185113</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>314.0594097868501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>94.80683692078117</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>80.91744281784312</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>326.2624260966943</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>616.5391140644609</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>420.3538061121867</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>57.74822800113536</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>532.9342021211286</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>265.095754002253</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>294.2627707717789</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37624,25 +37624,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>385.691907011065</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.2506324680946</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>513.2182750716003</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2893460.821759154</v>
+        <v>2898400.084608187</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>67.25025504144566</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.6056447625528</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>148.3681250208878</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.81919785449685</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>140.1336128527359</v>
       </c>
       <c r="S7" t="n">
-        <v>100.5554366672283</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>99.72476023394486</v>
+        <v>166.6660206362167</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>72.43998417784667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>4.440065804380572</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.09617589318577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>51.90774621965969</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>45.88884117514947</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>93.87916681139954</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>197.6535646950098</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274181</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>102.2541037431231</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>203.8435192151925</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750044</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.8740287942481</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185947</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.64843562452474</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.0611703421901</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.7301927680888</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.878965009939</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>681.052575355371</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>681.052575355371</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>681.052575355371</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>391.878965009939</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>391.878965009939</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>391.878965009939</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>391.878965009939</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.878965009939</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.2778626358874</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2316.076120912494</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2062.314335550585</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1731.251448207015</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1378.482792936901</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X5" t="n">
-        <v>1005.017034675821</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.8777027000092</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>586.579880314782</v>
       </c>
       <c r="S7" t="n">
-        <v>597.1409169113407</v>
+        <v>586.579880314782</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D8" t="n">
-        <v>951.4492202526051</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E8" t="n">
-        <v>565.6609676543608</v>
+        <v>960.4731223681274</v>
       </c>
       <c r="F8" t="n">
-        <v>154.6750628647532</v>
+        <v>549.4872175785199</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.0275768541693</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
         <v>222.942782082032</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541693</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541693</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541693</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="11">
@@ -5020,46 +5020,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149484</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170082</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738968</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.8766843813097</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C13" t="n">
-        <v>159.9405014534028</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>159.9405014534028</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550796</v>
+        <v>816.3222213695501</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.5251492115494</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,31 +5676,31 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5968,22 +5968,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,25 +5992,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>875.5607799144661</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>875.5607799144661</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>875.5607799144661</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>647.5712290164488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822473</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6311,7 +6311,7 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1395.629297080001</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1106.500658293559</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>851.8161700876719</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>562.3990000507114</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110079</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555206</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6621,7 +6621,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688073</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,19 +6876,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>130.9054447954974</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>324.3840174432682</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>155.4478345153613</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153613</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153613</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153613</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>1336.117678709276</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>1046.700508672316</v>
+        <v>954.8146123150555</v>
       </c>
       <c r="X40" t="n">
-        <v>818.7109577742983</v>
+        <v>726.8250614170381</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.9183786307682</v>
+        <v>506.032482273508</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.032482273508</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>337.0962993456011</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150555</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>726.8250614170381</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.032482273508</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949996</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781458</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711627</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>84.3377867533834</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>166.6769071324351</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>121.3579799234784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>192.3581855871778</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>88.58378770356754</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>119.2934573152661</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>82.39383318338488</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.95795138768923</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388528</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25608,7 +25608,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>21.55430267602225</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.85446058400595</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,25 +26374,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230231</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083534</v>
+        <v>-190484.3187083532</v>
       </c>
       <c r="C6" t="n">
+        <v>399483.5605061911</v>
+      </c>
+      <c r="D6" t="n">
         <v>399483.560506191</v>
       </c>
-      <c r="D6" t="n">
-        <v>399483.5605061909</v>
-      </c>
       <c r="E6" t="n">
-        <v>-21779.00365730263</v>
+        <v>-20901.87152355316</v>
       </c>
       <c r="F6" t="n">
-        <v>503381.0328195936</v>
+        <v>504258.1649533427</v>
       </c>
       <c r="G6" t="n">
-        <v>503381.0328195933</v>
+        <v>504258.1649533427</v>
       </c>
       <c r="H6" t="n">
-        <v>503381.0328195937</v>
+        <v>504258.1649533427</v>
       </c>
       <c r="I6" t="n">
-        <v>503381.0328195937</v>
+        <v>504258.164953343</v>
       </c>
       <c r="J6" t="n">
-        <v>326957.8136270004</v>
+        <v>327834.94576075</v>
       </c>
       <c r="K6" t="n">
-        <v>503381.0328195937</v>
+        <v>504258.1649533433</v>
       </c>
       <c r="L6" t="n">
-        <v>503381.0328195938</v>
+        <v>504258.1649533433</v>
       </c>
       <c r="M6" t="n">
-        <v>368580.0175857563</v>
+        <v>369457.1497195059</v>
       </c>
       <c r="N6" t="n">
-        <v>503381.0328195936</v>
+        <v>504258.164953343</v>
       </c>
       <c r="O6" t="n">
-        <v>503381.0328195934</v>
+        <v>504258.1649533432</v>
       </c>
       <c r="P6" t="n">
-        <v>503381.0328195933</v>
+        <v>504258.1649533433</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,22 +26968,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100.0595472176053</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>100.059547217605</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>68.08019533676998</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.4217708629162</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>6.531579127421963</v>
       </c>
       <c r="S7" t="n">
-        <v>111.5901022827906</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>314.0594097868501</v>
+        <v>247.1181493845783</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>94.80683692078117</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>24.68268415053373</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,16 +32946,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927188</v>
@@ -32964,19 +32964,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
         <v>0.2670576580354894</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,19 +33116,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336902</v>
@@ -33137,7 +33137,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,16 +33183,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927188</v>
@@ -33201,19 +33201,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354894</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,19 +33353,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336902</v>
@@ -33374,7 +33374,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440659</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081121</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980131</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209233</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081121</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330525</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980131</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209233</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -37001,16 +37001,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303311</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
